--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/PollfishAndriodSDK.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/PollfishAndriodSDK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>class_name</t>
   </si>
@@ -38,30 +38,6 @@
   </si>
   <si>
     <t>labelAPI</t>
-  </si>
-  <si>
-    <t>com.pollfish.main.PollFish</t>
-  </si>
-  <si>
-    <t>com.pollfish.main.PollFish.ParamsBuilder</t>
-  </si>
-  <si>
-    <t>PollFish.isPollfishPresent();</t>
-  </si>
-  <si>
-    <t>paramsBuilder.requestUUID(String requestUUID)</t>
-  </si>
-  <si>
-    <t>It happens that time had past since you initialized Pollfish and a survey is received. If you want to check if survey is still avaialble on your device and has not expired you can check by calling:</t>
-  </si>
-  <si>
-    <t>Sets a unique id to identify a user and be passed through server-to-server callbacks</t>
-  </si>
-  <si>
-    <t>{'your device'}</t>
-  </si>
-  <si>
-    <t>{'id'}</t>
   </si>
 </sst>
 </file>
@@ -419,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,46 +427,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
